--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_23_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_23_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-574147.5717740213</v>
+        <v>-576659.9801553861</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>153.5715888573517</v>
+        <v>242.6337954275702</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498652</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -750,13 +750,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657081</v>
+        <v>134.9994691657079</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734099341</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -820,13 +820,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>75.23913899819119</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004739</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>42.72603687383624</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>97.99922286953598</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>389.3916273155207</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>64.92109060063444</v>
       </c>
     </row>
     <row r="6">
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>149.8086405751969</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>53.54735467376837</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,19 +1187,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>128.3344840049813</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>257.6818544853563</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>75.27088892250303</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7274100041682118</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710053</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>107.4021082756243</v>
+        <v>26.1362719570585</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634824</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="15">
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1768,13 +1768,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>9.570729811036658</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>159.3654058540506</v>
       </c>
     </row>
     <row r="17">
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>32.57570591153974</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,19 +2056,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>219.4517041866476</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,16 +2239,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>68.11883945936997</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>92.01576915440866</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2296,16 +2296,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,10 +2482,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>284.0339611927405</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>6.228861054224896</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2722,13 +2722,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>249.0584607366395</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>126.9263824507421</v>
+        <v>163.3736250957651</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>65.67353929277157</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3563,7 +3563,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652651</v>
+        <v>56.98118882652616</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,7 +3794,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T46" t="n">
         <v>193.1208028352485</v>
@@ -4192,7 +4192,7 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W46" t="n">
         <v>262.2383508445512</v>
@@ -4201,7 +4201,7 @@
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1749.723851760221</v>
+        <v>1565.440264581601</v>
       </c>
       <c r="C2" t="n">
-        <v>1380.76133481981</v>
+        <v>1565.440264581601</v>
       </c>
       <c r="D2" t="n">
-        <v>1022.495636213059</v>
+        <v>1565.440264581601</v>
       </c>
       <c r="E2" t="n">
-        <v>636.7073836148149</v>
+        <v>1179.652011983356</v>
       </c>
       <c r="F2" t="n">
-        <v>636.7073836148149</v>
+        <v>768.6661071937488</v>
       </c>
       <c r="G2" t="n">
-        <v>221.6349334598114</v>
+        <v>353.5936570387452</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218338</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218338</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609169</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993391</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2866.097597267227</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V2" t="n">
-        <v>2866.097597267227</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W2" t="n">
-        <v>2513.328941997113</v>
+        <v>2325.505862906802</v>
       </c>
       <c r="X2" t="n">
-        <v>2139.863183736033</v>
+        <v>1952.040104645722</v>
       </c>
       <c r="Y2" t="n">
-        <v>1749.723851760221</v>
+        <v>1952.040104645722</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686079</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064755</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080134</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986305</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068412</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486466</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962569</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609169</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201684</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695164</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.38058137302</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507435</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275693</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547491</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341958</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577004</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>606.2504707415969</v>
+        <v>385.564938772426</v>
       </c>
       <c r="C4" t="n">
-        <v>437.31428781369</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="D4" t="n">
-        <v>437.31428781369</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E4" t="n">
-        <v>289.4011942312969</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F4" t="n">
-        <v>142.5112467333866</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>142.5112467333866</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>142.5112467333866</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218338</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962276</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>176.645724237293</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596501</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588477</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886951</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068846</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596431</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181838</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757116</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>787.8989355718367</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>787.8989355718367</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U4" t="n">
-        <v>787.8989355718367</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V4" t="n">
-        <v>787.8989355718367</v>
+        <v>666.202517612298</v>
       </c>
       <c r="W4" t="n">
-        <v>787.8989355718367</v>
+        <v>666.202517612298</v>
       </c>
       <c r="X4" t="n">
-        <v>787.8989355718367</v>
+        <v>567.2134036026657</v>
       </c>
       <c r="Y4" t="n">
-        <v>787.8989355718367</v>
+        <v>567.2134036026657</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1252.833343223196</v>
+        <v>1619.798686923957</v>
       </c>
       <c r="C5" t="n">
-        <v>1252.833343223196</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="D5" t="n">
-        <v>894.5676446164459</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E5" t="n">
-        <v>508.7793920182017</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F5" t="n">
-        <v>501.8338912689982</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912088</v>
@@ -4583,34 +4583,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
         <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794324</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2403.03827352421</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X5" t="n">
-        <v>2029.57251526313</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y5" t="n">
-        <v>1639.433183287318</v>
+        <v>2006.398526988078</v>
       </c>
     </row>
     <row r="6">
@@ -4620,64 +4620,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064538</v>
+        <v>85.51940803064628</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,34 +4699,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.51211643218342</v>
+        <v>457.9680739783734</v>
       </c>
       <c r="C7" t="n">
-        <v>66.51211643218342</v>
+        <v>457.9680739783734</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218342</v>
+        <v>457.9680739783734</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
         <v>332.3555681596505</v>
@@ -4747,28 +4747,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>679.7346894088473</v>
       </c>
       <c r="T7" t="n">
-        <v>699.1203903877109</v>
+        <v>457.9680739783734</v>
       </c>
       <c r="U7" t="n">
-        <v>410.0175235133545</v>
+        <v>457.9680739783734</v>
       </c>
       <c r="V7" t="n">
-        <v>355.929286469144</v>
+        <v>457.9680739783734</v>
       </c>
       <c r="W7" t="n">
-        <v>66.51211643218342</v>
+        <v>457.9680739783734</v>
       </c>
       <c r="X7" t="n">
-        <v>66.51211643218342</v>
+        <v>457.9680739783734</v>
       </c>
       <c r="Y7" t="n">
-        <v>66.51211643218342</v>
+        <v>457.9680739783734</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1678.62132134232</v>
+        <v>1513.341883274785</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>1144.379366334374</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>786.1136677276231</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>786.1136677276231</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>375.1277629380156</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520487</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176916</v>
+        <v>2626.176136870101</v>
       </c>
       <c r="W8" t="n">
-        <v>2325.505862906802</v>
+        <v>2273.407481599987</v>
       </c>
       <c r="X8" t="n">
-        <v>2325.505862906802</v>
+        <v>1899.941723338907</v>
       </c>
       <c r="Y8" t="n">
-        <v>2065.221161406442</v>
+        <v>1899.941723338907</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4857,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>501.2115707469939</v>
+        <v>290.4564109463978</v>
       </c>
       <c r="C10" t="n">
-        <v>332.275387819087</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="D10" t="n">
-        <v>332.275387819087</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
-        <v>332.275387819087</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
-        <v>332.275387819087</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5725511938059</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S10" t="n">
-        <v>729.2011216450112</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T10" t="n">
-        <v>729.2011216450112</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U10" t="n">
-        <v>729.2011216450112</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V10" t="n">
-        <v>729.2011216450112</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W10" t="n">
-        <v>729.2011216450112</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X10" t="n">
-        <v>501.2115707469939</v>
+        <v>692.8974549201677</v>
       </c>
       <c r="Y10" t="n">
-        <v>501.2115707469939</v>
+        <v>472.1048757766375</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,64 +5027,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245705</v>
+        <v>577.388077746847</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.8686257536381</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2338.476105524075</v>
+        <v>2420.562808876161</v>
       </c>
       <c r="U13" t="n">
-        <v>2049.400878868273</v>
+        <v>2131.487582220359</v>
       </c>
       <c r="V13" t="n">
-        <v>1794.716390662386</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W13" t="n">
-        <v>1505.299220625425</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X13" t="n">
-        <v>1277.309669727408</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y13" t="n">
-        <v>1056.517090583878</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,64 +5264,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192588</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L15" t="n">
-        <v>427.7414352191925</v>
+        <v>352.5519571452619</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>949.9304447718135</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>961.444616615148</v>
+        <v>801.6605733532803</v>
       </c>
       <c r="C16" t="n">
-        <v>792.5084336872411</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="D16" t="n">
-        <v>642.3917942749054</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E16" t="n">
-        <v>494.4787006925122</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
         <v>484.8112968429803</v>
@@ -5431,55 +5431,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782912</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038298</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797699</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W16" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X16" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="Y16" t="n">
-        <v>1143.093081445388</v>
+        <v>983.30903818352</v>
       </c>
     </row>
     <row r="17">
@@ -5489,16 +5489,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5507,58 +5507,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,7 +5647,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>962.6357307816191</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C19" t="n">
         <v>929.7309773356194</v>
@@ -5668,55 +5668,55 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038298</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797699</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1722.776592304617</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X19" t="n">
-        <v>1144.284195611859</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.284195611859</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5738,37 +5738,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>962.6357307816191</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C22" t="n">
-        <v>793.6995478537123</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D22" t="n">
-        <v>643.5829084413765</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E22" t="n">
-        <v>495.6698148589834</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X22" t="n">
-        <v>1144.284195611859</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.284195611859</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="23">
@@ -5978,31 +5978,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,22 +6063,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1016.58045691144</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C25" t="n">
-        <v>847.644273983533</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711973</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888042</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2197.062545487568</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1907.987318831765</v>
+        <v>1757.603793154328</v>
       </c>
       <c r="V25" t="n">
-        <v>1653.302830625878</v>
+        <v>1502.919304948441</v>
       </c>
       <c r="W25" t="n">
-        <v>1647.011051783227</v>
+        <v>1213.50213491148</v>
       </c>
       <c r="X25" t="n">
-        <v>1419.02150088521</v>
+        <v>985.5125840134626</v>
       </c>
       <c r="Y25" t="n">
-        <v>1198.22892174168</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,37 +6236,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,25 +6297,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>551.354624631591</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1725.886877746226</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1471.202389540339</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1181.785219503378</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>953.7956686053609</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>733.0030894618308</v>
       </c>
     </row>
     <row r="29">
@@ -6455,10 +6455,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6470,10 +6470,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,7 +6482,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745237</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>801.6918836311989</v>
       </c>
       <c r="C31" t="n">
-        <v>513.8536007400712</v>
+        <v>632.7557007032921</v>
       </c>
       <c r="D31" t="n">
-        <v>363.7369613277355</v>
+        <v>482.6390612909563</v>
       </c>
       <c r="E31" t="n">
-        <v>363.7369613277355</v>
+        <v>482.6390612909563</v>
       </c>
       <c r="F31" t="n">
-        <v>363.7369613277355</v>
+        <v>482.6390612909563</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="32">
@@ -6686,31 +6686,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2380.626175203724</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2091.550948547922</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1836.866460342035</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1547.449290305074</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1319.459739407057</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6923,31 +6923,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7011,22 +7011,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,25 +7184,25 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466572</v>
@@ -7211,13 +7211,13 @@
         <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D40" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580121</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345483</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384027</v>
+        <v>151.3734194384023</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
@@ -7391,19 +7391,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192616</v>
@@ -7418,10 +7418,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,28 +7430,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,46 +7543,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580119</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345482</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380733</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311327</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P43" t="n">
         <v>2496.057455973196</v>
@@ -7594,7 +7594,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,7 +7643,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,7 +7828,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547834</v>
@@ -7846,7 +7846,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>141.0361755299688</v>
+        <v>51.97396895975024</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292606</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,16 +22595,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22708,7 +22708,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -22723,7 +22723,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>21.11328141164693</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,7 +22750,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>42.01832191034077</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22768,7 +22768,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>127.7104325195012</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012923</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>110.0033420516626</v>
+        <v>191.2691783702298</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23656,13 +23656,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>135.8503182118946</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>59.21924749804424</v>
       </c>
     </row>
     <row r="17">
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>134.6711151870881</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23944,19 +23944,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>67.07129414994338</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,16 +24127,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>99.12798163925787</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>53.40527886852259</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24184,16 +24184,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24370,10 +24370,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>2.150513196503653</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>280.2941372823661</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24610,16 +24610,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>37.12601365260468</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>38.59775584152678</v>
+        <v>2.150513196503709</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>151.7319110345167</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>-7.105427357601002e-13</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>229059.6437758985</v>
+        <v>229059.6437758986</v>
       </c>
       <c r="C2" t="n">
-        <v>266838.575205892</v>
+        <v>266838.5752058921</v>
       </c>
       <c r="D2" t="n">
         <v>266838.5752058921</v>
@@ -26329,16 +26329,16 @@
         <v>262322.6448992519</v>
       </c>
       <c r="H2" t="n">
+        <v>262322.644899252</v>
+      </c>
+      <c r="I2" t="n">
         <v>262322.6448992519</v>
       </c>
-      <c r="I2" t="n">
-        <v>262322.644899252</v>
-      </c>
       <c r="J2" t="n">
-        <v>262322.644899252</v>
+        <v>262322.6448992519</v>
       </c>
       <c r="K2" t="n">
-        <v>262322.644899252</v>
+        <v>262322.6448992519</v>
       </c>
       <c r="L2" t="n">
         <v>262322.644899252</v>
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>7.680563094254467e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073548</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551193</v>
+        <v>85055.02793551167</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.71799363193</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27249.14345670401</v>
+        <v>27249.14345670418</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405253</v>
       </c>
       <c r="E4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.69604186728</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="G4" t="n">
         <v>14826.69604186736</v>
@@ -26439,10 +26439,10 @@
         <v>14826.69604186736</v>
       </c>
       <c r="J4" t="n">
-        <v>14826.69604186734</v>
+        <v>14826.69604186737</v>
       </c>
       <c r="K4" t="n">
-        <v>14826.6960418674</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="L4" t="n">
         <v>14826.69604186736</v>
@@ -26451,10 +26451,10 @@
         <v>14826.69604186736</v>
       </c>
       <c r="N4" t="n">
-        <v>22817.55530496083</v>
+        <v>22817.55530496088</v>
       </c>
       <c r="O4" t="n">
-        <v>22817.55530496085</v>
+        <v>22817.55530496088</v>
       </c>
       <c r="P4" t="n">
         <v>22817.55530496084</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613932</v>
+        <v>107933.9405613933</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1234868.18596979</v>
+        <v>-1235158.793134637</v>
       </c>
       <c r="C6" t="n">
-        <v>65307.89054044544</v>
+        <v>65307.89054044624</v>
       </c>
       <c r="D6" t="n">
-        <v>65307.89054044624</v>
+        <v>65307.8905404463</v>
       </c>
       <c r="E6" t="n">
-        <v>-179039.042773878</v>
+        <v>-179073.780699313</v>
       </c>
       <c r="F6" t="n">
-        <v>146373.4190334775</v>
+        <v>146338.6811080418</v>
       </c>
       <c r="G6" t="n">
-        <v>146373.4190334775</v>
+        <v>146338.6811080416</v>
       </c>
       <c r="H6" t="n">
-        <v>146373.4190334774</v>
+        <v>146338.6811080418</v>
       </c>
       <c r="I6" t="n">
-        <v>146373.4190334775</v>
+        <v>146338.6811080417</v>
       </c>
       <c r="J6" t="n">
-        <v>-71157.78336379988</v>
+        <v>-71192.52128923571</v>
       </c>
       <c r="K6" t="n">
-        <v>146373.4190334777</v>
+        <v>146338.6811080417</v>
       </c>
       <c r="L6" t="n">
-        <v>146373.4190334775</v>
+        <v>146338.6811080418</v>
       </c>
       <c r="M6" t="n">
-        <v>61318.39109796558</v>
+        <v>61283.65317253015</v>
       </c>
       <c r="N6" t="n">
-        <v>121429.1860533844</v>
+        <v>121429.1860533843</v>
       </c>
       <c r="O6" t="n">
         <v>140856.9040470162</v>
@@ -26719,13 +26719,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="3">
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26811,7 +26811,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26960,19 +26960,19 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.306832697355</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.188471626141109e-12</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27543,10 +27543,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -27555,7 +27555,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.91383075970656</v>
       </c>
       <c r="S4" t="n">
-        <v>147.0429884576057</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -27594,13 +27594,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>21.53009833793277</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27673,16 +27673,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>321.3168480554191</v>
       </c>
     </row>
     <row r="6">
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,10 +27789,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>39.96038475624499</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>198.5902886500596</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,19 +27907,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>199.4177744651536</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>128.5560841706973</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>91.9759321761248</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.0276049101526</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,7 +28059,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28293,13 +28293,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>-7.541226902200529e-12</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.800799509510398e-12</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="15">
@@ -28506,7 +28506,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>-4.524736141320318e-12</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28746,7 +28746,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>-4.524736141320318e-12</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -30283,7 +30283,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681595</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974798</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953986</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003807</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.356529362319</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574989</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095019</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099054</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.994981974641</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781687</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563567</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806945</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451119</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345275</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.6385688179853</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752252</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138793</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233472</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.647816683792</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970247</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002924</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.536594090554</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238314</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898492</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462214</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430536</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311878</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742015</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098818</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883113</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023085999</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895879</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.3612387071221</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553034</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.39664015211229</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31601,7 +31601,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,34 +31829,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>391.9250669264629</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,13 +31865,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,46 +31911,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>399.9031616963288</v>
       </c>
       <c r="M15" t="n">
-        <v>433.9798411722585</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,46 +32148,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>270.948695672725</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>754.0002396832324</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32789,19 +32789,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>173.8200325543355</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33026,19 +33026,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>173.8200325543355</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33257,19 +33257,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>281.0363767960755</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,13 +33278,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>550.5977692975241</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33421,7 +33421,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L32" t="n">
         <v>867.846407116256</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33512,7 +33512,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33664,7 +33664,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
         <v>981.2715114159425</v>
@@ -33731,13 +33731,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33749,7 +33749,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34208,31 +34208,31 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34366,7 +34366,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687123</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554002</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923317</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302262</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882187</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193714</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037192</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222461</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597696</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340051</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013289</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004588</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525802</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859622</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127269</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.9421752903428</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.3038931996669</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286435</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
-        <v>169.123718484038</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230781</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567571</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106919</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014208</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597693</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>261.3487819164546</v>
       </c>
       <c r="M15" t="n">
-        <v>291.8458072502402</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326294881</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,31 +35957,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>128.8146617507067</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096304</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>622.6585275998991</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,25 +36431,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>35.97859357997653</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,25 +36668,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>35.9785935799765</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36905,19 +36905,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>138.9023428740572</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,13 +36926,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>416.6233618831939</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37160,7 +37160,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37397,7 +37397,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37707,13 +37707,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
         <v>397.5465471980852</v>
